--- a/forms/contact/health_center-edit.xlsx
+++ b/forms/contact/health_center-edit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">user</t>
@@ -280,10 +283,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -417,7 +419,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,7 +475,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,15 +587,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C48" activeCellId="1" sqref="J14 C48"/>
+      <selection pane="bottomLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="36.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.83"/>
@@ -658,8 +659,12 @@
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="b">
         <f aca="false">FALSE()</f>
@@ -681,10 +686,14 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="1"/>
@@ -700,16 +709,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -726,7 +735,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -746,7 +755,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -786,47 +795,47 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -840,16 +849,16 @@
     </row>
     <row r="11" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -864,70 +873,70 @@
     </row>
     <row r="12" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="6"/>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7"/>
     </row>
     <row r="14" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -935,14 +944,14 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="9"/>
       <c r="N14" s="9"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1993,7 +2002,7 @@
   <dimension ref="A1:C1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="J14 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2006,101 +2015,101 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3117,7 +3126,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="J14 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3133,25 +3142,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3175,21 +3184,21 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
